--- a/medicine/Enfance/Halima_Hamdane/Halima_Hamdane.xlsx
+++ b/medicine/Enfance/Halima_Hamdane/Halima_Hamdane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halima Hamdane, née au Maroc, est une auteure, conteuse et interprète de littérature d'enfance et de jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halima Hamdane, née au Maroc, est une auteure, conteuse et interprète de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Maroc, Halima Hamdane poursuit des études de lettres avant de devenir professeure de français. En 1986, elle s’installe en France, et travaille comme chargée de cours de méthodologie à l'Université d'Évry-Val-d’Essonne[2]. Elle se lance dans l’écriture à la suite de sa rencontre avec le conteur français Henri Gougaud, et se réconcilie alors avec le conte et sa langue maternelle. Ses histoires sont racontées à la fois en français et en arabe. L’autrice puisse son inspiration dans la littérature orale marocaine[3]. La conteuse anime également l’Arbre à palabres, situé au Musée du Quai Branly - Jacques-Chirac à Paris[4]. 
-Halima Hamdame participe à un programme d’alphabétisation pour l’apprentissage de la langue française à partir des contes[2]. Également interprète, la conteuse se produit avec sa fille, la danseuse Camélia Montassere, lors de spectacles célébrant l’alliance de la parole et de la danse[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Maroc, Halima Hamdane poursuit des études de lettres avant de devenir professeure de français. En 1986, elle s’installe en France, et travaille comme chargée de cours de méthodologie à l'Université d'Évry-Val-d’Essonne. Elle se lance dans l’écriture à la suite de sa rencontre avec le conteur français Henri Gougaud, et se réconcilie alors avec le conte et sa langue maternelle. Ses histoires sont racontées à la fois en français et en arabe. L’autrice puisse son inspiration dans la littérature orale marocaine. La conteuse anime également l’Arbre à palabres, situé au Musée du Quai Branly - Jacques-Chirac à Paris. 
+Halima Hamdame participe à un programme d’alphabétisation pour l’apprentissage de la langue française à partir des contes. Également interprète, la conteuse se produit avec sa fille, la danseuse Camélia Montassere, lors de spectacles célébrant l’alliance de la parole et de la danse,.
 </t>
         </is>
       </c>
